--- a/pred_ohlcv/54/2019-10-05 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-05 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,13 +425,16 @@
         <v>5.4</v>
       </c>
       <c r="F2" t="n">
-        <v>305.283</v>
+        <v>84.57810000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5.447666666666664</v>
+        <v>5.447499999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +442,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.32</v>
+        <v>5.4</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38</v>
+        <v>5.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="E3" t="n">
-        <v>5.32</v>
+        <v>5.4</v>
       </c>
       <c r="F3" t="n">
-        <v>415799.674</v>
+        <v>305.283</v>
       </c>
       <c r="G3" t="n">
-        <v>5.448333333333331</v>
+        <v>5.447666666666664</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +471,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C4" t="n">
-        <v>5.2</v>
+        <v>5.38</v>
       </c>
       <c r="D4" t="n">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="E4" t="n">
-        <v>5.2</v>
+        <v>5.32</v>
       </c>
       <c r="F4" t="n">
-        <v>1146525.9672</v>
+        <v>415799.674</v>
       </c>
       <c r="G4" t="n">
-        <v>5.445166666666664</v>
+        <v>5.448333333333331</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +500,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="C5" t="n">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="E5" t="n">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>1146525.9672</v>
       </c>
       <c r="G5" t="n">
-        <v>5.444833333333332</v>
+        <v>5.445166666666664</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -524,13 +541,16 @@
         <v>5.38</v>
       </c>
       <c r="F6" t="n">
-        <v>3425.4832</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>5.443333333333331</v>
+        <v>5.444833333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +558,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.31</v>
+        <v>5.38</v>
       </c>
       <c r="C7" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="D7" t="n">
         <v>5.38</v>
       </c>
       <c r="E7" t="n">
-        <v>5.23</v>
+        <v>5.38</v>
       </c>
       <c r="F7" t="n">
-        <v>315668.8661</v>
+        <v>3425.4832</v>
       </c>
       <c r="G7" t="n">
-        <v>5.439333333333331</v>
+        <v>5.443333333333331</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +587,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="C8" t="n">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="E8" t="n">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="F8" t="n">
-        <v>193021.951</v>
+        <v>315668.8661</v>
       </c>
       <c r="G8" t="n">
-        <v>5.43733333333333</v>
+        <v>5.439333333333331</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -602,13 +628,16 @@
         <v>5.31</v>
       </c>
       <c r="F9" t="n">
-        <v>428351.5333</v>
+        <v>193021.951</v>
       </c>
       <c r="G9" t="n">
-        <v>5.434666666666663</v>
+        <v>5.43733333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +645,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="C10" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.32</v>
       </c>
-      <c r="D10" t="n">
-        <v>5.38</v>
-      </c>
       <c r="E10" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="F10" t="n">
-        <v>58673.7304</v>
+        <v>428351.5333</v>
       </c>
       <c r="G10" t="n">
-        <v>5.431499999999997</v>
+        <v>5.434666666666663</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +674,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.19</v>
+        <v>5.38</v>
       </c>
       <c r="C11" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="D11" t="n">
-        <v>5.19</v>
+        <v>5.38</v>
       </c>
       <c r="E11" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="F11" t="n">
-        <v>13279.4667</v>
+        <v>58673.7304</v>
       </c>
       <c r="G11" t="n">
-        <v>5.425999999999997</v>
+        <v>5.431499999999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +703,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.37</v>
+        <v>5.19</v>
       </c>
       <c r="C12" t="n">
-        <v>5.3</v>
+        <v>5.19</v>
       </c>
       <c r="D12" t="n">
-        <v>5.37</v>
+        <v>5.19</v>
       </c>
       <c r="E12" t="n">
-        <v>5.3</v>
+        <v>5.19</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>13279.4667</v>
       </c>
       <c r="G12" t="n">
-        <v>5.422333333333331</v>
+        <v>5.425999999999997</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.27</v>
+        <v>5.37</v>
       </c>
       <c r="C13" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="D13" t="n">
-        <v>5.27</v>
+        <v>5.37</v>
       </c>
       <c r="E13" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>5.418166666666664</v>
+        <v>5.422333333333331</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +761,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="C14" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="D14" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="E14" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="F14" t="n">
-        <v>235744.2922</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>5.414166666666664</v>
+        <v>5.418166666666664</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -749,22 +793,25 @@
         <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="D15" t="n">
         <v>5.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="F15" t="n">
-        <v>19370.5</v>
+        <v>235744.2922</v>
       </c>
       <c r="G15" t="n">
-        <v>5.410666666666665</v>
+        <v>5.414166666666664</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +819,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>5.3</v>
       </c>
       <c r="D16" t="n">
-        <v>5.44</v>
+        <v>5.3</v>
       </c>
       <c r="E16" t="n">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2010</v>
+        <v>19370.5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.409666666666665</v>
+        <v>5.410666666666665</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -798,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.34</v>
+        <v>5.26</v>
       </c>
       <c r="C17" t="n">
         <v>5.44</v>
@@ -807,16 +857,19 @@
         <v>5.44</v>
       </c>
       <c r="E17" t="n">
-        <v>5.33</v>
+        <v>5.26</v>
       </c>
       <c r="F17" t="n">
-        <v>66269.5971</v>
+        <v>2010</v>
       </c>
       <c r="G17" t="n">
-        <v>5.407833333333331</v>
+        <v>5.409666666666665</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +877,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C18" t="n">
         <v>5.44</v>
       </c>
-      <c r="C18" t="n">
-        <v>5.47</v>
-      </c>
       <c r="D18" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="E18" t="n">
-        <v>5.44</v>
+        <v>5.33</v>
       </c>
       <c r="F18" t="n">
-        <v>3050</v>
+        <v>66269.5971</v>
       </c>
       <c r="G18" t="n">
-        <v>5.406833333333332</v>
+        <v>5.407833333333331</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="C19" t="n">
         <v>5.47</v>
@@ -859,16 +915,19 @@
         <v>5.47</v>
       </c>
       <c r="E19" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="F19" t="n">
-        <v>810</v>
+        <v>3050</v>
       </c>
       <c r="G19" t="n">
-        <v>5.406666666666665</v>
+        <v>5.406833333333332</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -879,22 +938,25 @@
         <v>5.47</v>
       </c>
       <c r="C20" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="D20" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="E20" t="n">
         <v>5.47</v>
       </c>
       <c r="F20" t="n">
-        <v>25636.363</v>
+        <v>810</v>
       </c>
       <c r="G20" t="n">
-        <v>5.406499999999999</v>
+        <v>5.406666666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C21" t="n">
         <v>5.51</v>
@@ -911,16 +973,19 @@
         <v>5.51</v>
       </c>
       <c r="E21" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F21" t="n">
-        <v>12000</v>
+        <v>25636.363</v>
       </c>
       <c r="G21" t="n">
-        <v>5.406333333333333</v>
+        <v>5.406499999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +993,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C22" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="D22" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="E22" t="n">
-        <v>5.46</v>
+        <v>5.51</v>
       </c>
       <c r="F22" t="n">
-        <v>5037.274</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="n">
-        <v>5.405333333333332</v>
+        <v>5.406333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5.51</v>
+        <v>5.46</v>
       </c>
       <c r="D23" t="n">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="E23" t="n">
-        <v>5.41</v>
+        <v>5.46</v>
       </c>
       <c r="F23" t="n">
-        <v>2010</v>
+        <v>5037.274</v>
       </c>
       <c r="G23" t="n">
-        <v>5.405166666666665</v>
+        <v>5.405333333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C24" t="n">
         <v>5.51</v>
@@ -989,15 +1060,18 @@
         <v>5.51</v>
       </c>
       <c r="E24" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="F24" t="n">
-        <v>310</v>
+        <v>2010</v>
       </c>
       <c r="G24" t="n">
-        <v>5.405666666666665</v>
+        <v>5.405166666666665</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C25" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="D25" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="E25" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F25" t="n">
-        <v>1047.2363</v>
+        <v>310</v>
       </c>
       <c r="G25" t="n">
-        <v>5.405999999999998</v>
+        <v>5.405666666666665</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E26" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F26" t="n">
-        <v>804.8907</v>
+        <v>1047.2363</v>
       </c>
       <c r="G26" t="n">
-        <v>5.406166666666665</v>
+        <v>5.405999999999998</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>5.49</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>804.8907</v>
       </c>
       <c r="G27" t="n">
         <v>5.406166666666665</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E28" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F28" t="n">
-        <v>221824.794</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>5.405666666666664</v>
+        <v>5.406166666666665</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="C29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="E29" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="F29" t="n">
-        <v>214152.0728</v>
+        <v>221824.794</v>
       </c>
       <c r="G29" t="n">
-        <v>5.40433333333333</v>
+        <v>5.405666666666664</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="C30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="D30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="E30" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="F30" t="n">
-        <v>5973.9168</v>
+        <v>214152.0728</v>
       </c>
       <c r="G30" t="n">
-        <v>5.404666666666663</v>
+        <v>5.40433333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E31" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F31" t="n">
-        <v>215.7103</v>
+        <v>5973.9168</v>
       </c>
       <c r="G31" t="n">
-        <v>5.404999999999997</v>
+        <v>5.404666666666663</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>5.49</v>
       </c>
       <c r="C32" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="D32" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="E32" t="n">
         <v>5.49</v>
       </c>
       <c r="F32" t="n">
-        <v>7000</v>
+        <v>215.7103</v>
       </c>
       <c r="G32" t="n">
-        <v>5.40533333333333</v>
+        <v>5.404999999999997</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="C33" t="n">
         <v>5.5</v>
@@ -1223,15 +1321,18 @@
         <v>5.5</v>
       </c>
       <c r="E33" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3332</v>
+        <v>7000</v>
       </c>
       <c r="G33" t="n">
-        <v>5.406666666666663</v>
+        <v>5.40533333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>5.5</v>
       </c>
       <c r="F34" t="n">
-        <v>44.4444</v>
+        <v>133.3332</v>
       </c>
       <c r="G34" t="n">
-        <v>5.407999999999996</v>
+        <v>5.406666666666663</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>5.5</v>
       </c>
       <c r="F35" t="n">
-        <v>794.332</v>
+        <v>44.4444</v>
       </c>
       <c r="G35" t="n">
-        <v>5.409333333333328</v>
+        <v>5.407999999999996</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E36" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>247.1684</v>
+        <v>794.332</v>
       </c>
       <c r="G36" t="n">
-        <v>5.409499999999995</v>
+        <v>5.409333333333328</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>5.49</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>247.1684</v>
       </c>
       <c r="G37" t="n">
-        <v>5.409666666666662</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="C38" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D38" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E38" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="F38" t="n">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>5.409499999999995</v>
+        <v>5.409666666666662</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,10 +1486,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C39" t="n">
         <v>5.47</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.48</v>
       </c>
       <c r="D39" t="n">
         <v>5.48</v>
@@ -1382,12 +1498,15 @@
         <v>5.47</v>
       </c>
       <c r="F39" t="n">
-        <v>64129.1907</v>
+        <v>222</v>
       </c>
       <c r="G39" t="n">
         <v>5.409499999999995</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="C40" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D40" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E40" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="F40" t="n">
-        <v>33107.909</v>
+        <v>64129.1907</v>
       </c>
       <c r="G40" t="n">
-        <v>5.411333333333329</v>
+        <v>5.409499999999995</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>5.5</v>
       </c>
       <c r="F41" t="n">
-        <v>40135.0909</v>
+        <v>33107.909</v>
       </c>
       <c r="G41" t="n">
-        <v>5.411999999999995</v>
+        <v>5.411333333333329</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>5.5</v>
       </c>
       <c r="C42" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="D42" t="n">
         <v>5.5</v>
       </c>
       <c r="E42" t="n">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="F42" t="n">
-        <v>75071.06269999999</v>
+        <v>40135.0909</v>
       </c>
       <c r="G42" t="n">
-        <v>5.412666666666663</v>
+        <v>5.411999999999995</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="C43" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="D43" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="E43" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="F43" t="n">
-        <v>30866.7814</v>
+        <v>75071.06269999999</v>
       </c>
       <c r="G43" t="n">
-        <v>5.41233333333333</v>
+        <v>5.412666666666663</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C44" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="D44" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E44" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>30866.7814</v>
       </c>
       <c r="G44" t="n">
-        <v>5.41383333333333</v>
+        <v>5.41233333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="C45" t="n">
-        <v>5.32</v>
+        <v>5.48</v>
       </c>
       <c r="D45" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="E45" t="n">
-        <v>5.32</v>
+        <v>5.48</v>
       </c>
       <c r="F45" t="n">
-        <v>65738.33319999999</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>5.412666666666664</v>
+        <v>5.41383333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.49</v>
+        <v>5.35</v>
       </c>
       <c r="C46" t="n">
-        <v>5.49</v>
+        <v>5.32</v>
       </c>
       <c r="D46" t="n">
-        <v>5.49</v>
+        <v>5.35</v>
       </c>
       <c r="E46" t="n">
-        <v>5.49</v>
+        <v>5.32</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>65738.33319999999</v>
       </c>
       <c r="G46" t="n">
-        <v>5.414999999999996</v>
+        <v>5.412666666666664</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E47" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F47" t="n">
-        <v>54400</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>5.415999999999997</v>
+        <v>5.414999999999996</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="C48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="D48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="E48" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>54400</v>
       </c>
       <c r="G48" t="n">
-        <v>5.417833333333331</v>
+        <v>5.415999999999997</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="D49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="E49" t="n">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="F49" t="n">
-        <v>15294.4954</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>5.417999999999997</v>
+        <v>5.417833333333331</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="C50" t="n">
         <v>5.45</v>
@@ -1665,15 +1814,18 @@
         <v>5.45</v>
       </c>
       <c r="E50" t="n">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="F50" t="n">
-        <v>40853.5578</v>
+        <v>15294.4954</v>
       </c>
       <c r="G50" t="n">
-        <v>5.418166666666663</v>
+        <v>5.417999999999997</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="C51" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="D51" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="E51" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="F51" t="n">
-        <v>204666.5677</v>
+        <v>40853.5578</v>
       </c>
       <c r="G51" t="n">
-        <v>5.41983333333333</v>
+        <v>5.418166666666663</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="C52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="D52" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="E52" t="n">
-        <v>5.47</v>
+        <v>5.46</v>
       </c>
       <c r="F52" t="n">
-        <v>152625.1391</v>
+        <v>204666.5677</v>
       </c>
       <c r="G52" t="n">
-        <v>5.420499999999998</v>
+        <v>5.41983333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="D53" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E53" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="F53" t="n">
-        <v>8793.172699999999</v>
+        <v>152625.1391</v>
       </c>
       <c r="G53" t="n">
-        <v>5.421499999999997</v>
+        <v>5.420499999999998</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="C54" t="n">
         <v>5.5</v>
@@ -1769,15 +1930,18 @@
         <v>5.5</v>
       </c>
       <c r="E54" t="n">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="F54" t="n">
-        <v>45833.1455</v>
+        <v>8793.172699999999</v>
       </c>
       <c r="G54" t="n">
-        <v>5.423833333333331</v>
+        <v>5.421499999999997</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="C55" t="n">
-        <v>5.42</v>
+        <v>5.5</v>
       </c>
       <c r="D55" t="n">
-        <v>5.42</v>
+        <v>5.5</v>
       </c>
       <c r="E55" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="F55" t="n">
-        <v>8488.725</v>
+        <v>45833.1455</v>
       </c>
       <c r="G55" t="n">
-        <v>5.425333333333331</v>
+        <v>5.423833333333331</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="C56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="D56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="E56" t="n">
-        <v>5.49</v>
+        <v>5.42</v>
       </c>
       <c r="F56" t="n">
-        <v>256.0291</v>
+        <v>8488.725</v>
       </c>
       <c r="G56" t="n">
-        <v>5.426166666666664</v>
+        <v>5.425333333333331</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="C57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="D57" t="n">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="E57" t="n">
-        <v>5.37</v>
+        <v>5.49</v>
       </c>
       <c r="F57" t="n">
-        <v>109967.1608</v>
+        <v>256.0291</v>
       </c>
       <c r="G57" t="n">
-        <v>5.425333333333332</v>
+        <v>5.426166666666664</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="C58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="D58" t="n">
-        <v>5.48</v>
+        <v>5.41</v>
       </c>
       <c r="E58" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="F58" t="n">
-        <v>243.677</v>
+        <v>109967.1608</v>
       </c>
       <c r="G58" t="n">
-        <v>5.426833333333333</v>
+        <v>5.425333333333332</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="C59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="D59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="E59" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="F59" t="n">
-        <v>14380.0145</v>
+        <v>243.677</v>
       </c>
       <c r="G59" t="n">
-        <v>5.426166666666666</v>
+        <v>5.426833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C60" t="n">
         <v>5.35</v>
       </c>
       <c r="D60" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E60" t="n">
         <v>5.35</v>
       </c>
       <c r="F60" t="n">
-        <v>171877.2363</v>
+        <v>14380.0145</v>
       </c>
       <c r="G60" t="n">
-        <v>5.425833333333333</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="C61" t="n">
         <v>5.35</v>
       </c>
       <c r="D61" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E61" t="n">
         <v>5.35</v>
       </c>
-      <c r="E61" t="n">
-        <v>5.34</v>
-      </c>
       <c r="F61" t="n">
-        <v>88200.29399999999</v>
+        <v>171877.2363</v>
       </c>
       <c r="G61" t="n">
-        <v>5.425000000000001</v>
+        <v>5.425833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="C62" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D62" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E62" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="F62" t="n">
-        <v>234.0498</v>
+        <v>88200.29399999999</v>
       </c>
       <c r="G62" t="n">
-        <v>5.425333333333335</v>
+        <v>5.425000000000001</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E63" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F63" t="n">
-        <v>85.50579999999999</v>
+        <v>234.0498</v>
       </c>
       <c r="G63" t="n">
-        <v>5.424833333333336</v>
+        <v>5.425333333333335</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C64" t="n">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="D64" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E64" t="n">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="F64" t="n">
-        <v>808522.2621000001</v>
+        <v>85.50579999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>5.426666666666669</v>
+        <v>5.424833333333336</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="C65" t="n">
-        <v>5.42</v>
+        <v>5.31</v>
       </c>
       <c r="D65" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="E65" t="n">
-        <v>5.42</v>
+        <v>5.31</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>808522.2621000001</v>
       </c>
       <c r="G65" t="n">
-        <v>5.427333333333336</v>
+        <v>5.426666666666669</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>5.42</v>
       </c>
       <c r="F66" t="n">
-        <v>92.2509</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>5.428000000000003</v>
+        <v>5.427333333333336</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="D67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="E67" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F67" t="n">
-        <v>92.0202</v>
+        <v>92.2509</v>
       </c>
       <c r="G67" t="n">
-        <v>5.430000000000003</v>
+        <v>5.428000000000003</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="C68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E68" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="F68" t="n">
-        <v>482.4723</v>
+        <v>92.0202</v>
       </c>
       <c r="G68" t="n">
-        <v>5.431833333333336</v>
+        <v>5.430000000000003</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="C69" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="D69" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="E69" t="n">
-        <v>5.35</v>
+        <v>5.42</v>
       </c>
       <c r="F69" t="n">
-        <v>108221.9709</v>
+        <v>482.4723</v>
       </c>
       <c r="G69" t="n">
-        <v>5.432666666666671</v>
+        <v>5.431833333333336</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="C70" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D70" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E70" t="n">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="F70" t="n">
-        <v>2352.4832</v>
+        <v>108221.9709</v>
       </c>
       <c r="G70" t="n">
-        <v>5.43366666666667</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E71" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F71" t="n">
-        <v>40772.7217</v>
+        <v>2352.4832</v>
       </c>
       <c r="G71" t="n">
-        <v>5.436500000000004</v>
+        <v>5.43366666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E72" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>40772.7217</v>
       </c>
       <c r="G72" t="n">
-        <v>5.437833333333336</v>
+        <v>5.436500000000004</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2269,9 +2487,12 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>5.43966666666667</v>
+        <v>5.437833333333336</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>5.38</v>
       </c>
       <c r="F74" t="n">
-        <v>7806.6914</v>
+        <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>5.441333333333337</v>
+        <v>5.43966666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E75" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F75" t="n">
-        <v>34689.2373</v>
+        <v>7806.6914</v>
       </c>
       <c r="G75" t="n">
-        <v>5.442333333333337</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="D76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="E76" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>34689.2373</v>
       </c>
       <c r="G76" t="n">
-        <v>5.441333333333337</v>
+        <v>5.442333333333337</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2367,15 +2597,18 @@
         <v>5.38</v>
       </c>
       <c r="E77" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F77" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>5.440333333333338</v>
+        <v>5.441333333333337</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2393,15 +2626,18 @@
         <v>5.38</v>
       </c>
       <c r="E78" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="G78" t="n">
-        <v>5.438833333333337</v>
+        <v>5.440333333333338</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>5.38</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>5.437333333333337</v>
+        <v>5.438833333333337</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C80" t="n">
         <v>5.38</v>
@@ -2445,15 +2684,18 @@
         <v>5.38</v>
       </c>
       <c r="E80" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="F80" t="n">
-        <v>34700.2373</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>5.43516666666667</v>
+        <v>5.437333333333337</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C81" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="D81" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="E81" t="n">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="F81" t="n">
-        <v>465497.5636</v>
+        <v>34700.2373</v>
       </c>
       <c r="G81" t="n">
-        <v>5.433500000000004</v>
+        <v>5.43516666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="C82" t="n">
         <v>5.41</v>
@@ -2497,15 +2742,18 @@
         <v>5.41</v>
       </c>
       <c r="E82" t="n">
-        <v>5.41</v>
+        <v>5.38</v>
       </c>
       <c r="F82" t="n">
-        <v>31819.211</v>
+        <v>465497.5636</v>
       </c>
       <c r="G82" t="n">
-        <v>5.432666666666671</v>
+        <v>5.433500000000004</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="C83" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="D83" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="E83" t="n">
-        <v>5.37</v>
+        <v>5.41</v>
       </c>
       <c r="F83" t="n">
-        <v>27605.4571</v>
+        <v>31819.211</v>
       </c>
       <c r="G83" t="n">
-        <v>5.431500000000004</v>
+        <v>5.432666666666671</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="C84" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="D84" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="E84" t="n">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="F84" t="n">
-        <v>35</v>
+        <v>27605.4571</v>
       </c>
       <c r="G84" t="n">
-        <v>5.429833333333338</v>
+        <v>5.431500000000004</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E85" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="F85" t="n">
-        <v>1502.9574</v>
+        <v>35</v>
       </c>
       <c r="G85" t="n">
-        <v>5.428166666666671</v>
+        <v>5.429833333333338</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C86" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="D86" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="E86" t="n">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="F86" t="n">
-        <v>73542.039</v>
+        <v>1502.9574</v>
       </c>
       <c r="G86" t="n">
-        <v>5.427166666666671</v>
+        <v>5.428166666666671</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>5.41</v>
       </c>
       <c r="C87" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="D87" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="E87" t="n">
-        <v>5.41</v>
+        <v>5.36</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>73542.039</v>
       </c>
       <c r="G87" t="n">
-        <v>5.425833333333339</v>
+        <v>5.427166666666671</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="C88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E88" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="F88" t="n">
-        <v>18810.75</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>5.425000000000005</v>
+        <v>5.425833333333339</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E89" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>18810.75</v>
       </c>
       <c r="G89" t="n">
-        <v>5.425166666666672</v>
+        <v>5.425000000000005</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="C90" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="D90" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="E90" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="F90" t="n">
-        <v>13662.8497</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>5.423500000000006</v>
+        <v>5.425166666666672</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="C91" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="D91" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E91" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F91" t="n">
-        <v>11838.6111</v>
+        <v>13662.8497</v>
       </c>
       <c r="G91" t="n">
-        <v>5.422000000000006</v>
+        <v>5.423500000000006</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="C92" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D92" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E92" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="F92" t="n">
-        <v>4017.4822</v>
+        <v>11838.6111</v>
       </c>
       <c r="G92" t="n">
-        <v>5.420500000000006</v>
+        <v>5.422000000000006</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="C93" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="D93" t="n">
-        <v>5.4</v>
+        <v>5.41</v>
       </c>
       <c r="E93" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="F93" t="n">
-        <v>1566.7685</v>
+        <v>4017.4822</v>
       </c>
       <c r="G93" t="n">
-        <v>5.418833333333339</v>
+        <v>5.420500000000006</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>5.4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D94" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E94" t="n">
         <v>5.4</v>
       </c>
       <c r="F94" t="n">
-        <v>683.9186</v>
+        <v>1566.7685</v>
       </c>
       <c r="G94" t="n">
-        <v>5.41733333333334</v>
+        <v>5.418833333333339</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C95" t="n">
         <v>5.41</v>
       </c>
-      <c r="C95" t="n">
-        <v>5.46</v>
-      </c>
       <c r="D95" t="n">
-        <v>5.46</v>
+        <v>5.41</v>
       </c>
       <c r="E95" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="F95" t="n">
-        <v>78039.29580000001</v>
+        <v>683.9186</v>
       </c>
       <c r="G95" t="n">
-        <v>5.416666666666672</v>
+        <v>5.41733333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="C96" t="n">
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="D96" t="n">
-        <v>5.49</v>
+        <v>5.46</v>
       </c>
       <c r="E96" t="n">
-        <v>5.49</v>
+        <v>5.41</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>78039.29580000001</v>
       </c>
       <c r="G96" t="n">
         <v>5.416666666666672</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.46</v>
+        <v>5.49</v>
       </c>
       <c r="C97" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="D97" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="E97" t="n">
-        <v>5.4</v>
+        <v>5.49</v>
       </c>
       <c r="F97" t="n">
-        <v>19525.8935</v>
+        <v>22</v>
       </c>
       <c r="G97" t="n">
-        <v>5.416333333333339</v>
+        <v>5.416666666666672</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C98" t="n">
         <v>5.47</v>
       </c>
-      <c r="C98" t="n">
-        <v>5.48</v>
-      </c>
       <c r="D98" t="n">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="E98" t="n">
-        <v>5.47</v>
+        <v>5.4</v>
       </c>
       <c r="F98" t="n">
-        <v>17484.5978</v>
+        <v>19525.8935</v>
       </c>
       <c r="G98" t="n">
-        <v>5.416500000000005</v>
+        <v>5.416333333333339</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="C99" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="D99" t="n">
-        <v>5.45</v>
+        <v>5.48</v>
       </c>
       <c r="E99" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="F99" t="n">
-        <v>4191.376146788991</v>
+        <v>17484.5978</v>
       </c>
       <c r="G99" t="n">
-        <v>5.416000000000006</v>
+        <v>5.416500000000005</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="C100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="D100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="E100" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="F100" t="n">
-        <v>5440.6603</v>
+        <v>4191.376146788991</v>
       </c>
       <c r="G100" t="n">
-        <v>5.413333333333338</v>
+        <v>5.416000000000006</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="C101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="D101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="E101" t="n">
-        <v>5.43</v>
+        <v>5.34</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>5440.6603</v>
       </c>
       <c r="G101" t="n">
-        <v>5.412166666666672</v>
+        <v>5.413333333333338</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="C102" t="n">
         <v>5.43</v>
@@ -3017,15 +3322,18 @@
         <v>5.43</v>
       </c>
       <c r="E102" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="F102" t="n">
-        <v>64911</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
         <v>5.412166666666672</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="C103" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="D103" t="n">
-        <v>5.35</v>
+        <v>5.43</v>
       </c>
       <c r="E103" t="n">
-        <v>5.35</v>
+        <v>5.37</v>
       </c>
       <c r="F103" t="n">
-        <v>631.7499</v>
+        <v>64911</v>
       </c>
       <c r="G103" t="n">
-        <v>5.411833333333338</v>
+        <v>5.412166666666672</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="C104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="D104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="E104" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>631.7499</v>
       </c>
       <c r="G104" t="n">
-        <v>5.411000000000005</v>
+        <v>5.411833333333338</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>5.43</v>
       </c>
       <c r="F105" t="n">
-        <v>702</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>5.412833333333339</v>
+        <v>5.411000000000005</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="C106" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="D106" t="n">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="E106" t="n">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="F106" t="n">
-        <v>73823.2887</v>
+        <v>702</v>
       </c>
       <c r="G106" t="n">
-        <v>5.412000000000005</v>
+        <v>5.412833333333339</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.45</v>
+        <v>5.38</v>
       </c>
       <c r="C107" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="D107" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="E107" t="n">
-        <v>5.44</v>
+        <v>5.38</v>
       </c>
       <c r="F107" t="n">
-        <v>497442.535353211</v>
+        <v>73823.2887</v>
       </c>
       <c r="G107" t="n">
-        <v>5.412333333333339</v>
+        <v>5.412000000000005</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="C108" t="n">
         <v>5.47</v>
@@ -3173,15 +3496,18 @@
         <v>5.47</v>
       </c>
       <c r="E108" t="n">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>497442.535353211</v>
       </c>
       <c r="G108" t="n">
-        <v>5.412000000000006</v>
+        <v>5.412333333333339</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,22 +3519,25 @@
         <v>5.47</v>
       </c>
       <c r="C109" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="D109" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="E109" t="n">
         <v>5.47</v>
       </c>
       <c r="F109" t="n">
-        <v>404825.5061</v>
+        <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>5.413000000000006</v>
+        <v>5.412000000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C110" t="n">
         <v>5.51</v>
@@ -3225,15 +3554,18 @@
         <v>5.51</v>
       </c>
       <c r="E110" t="n">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="F110" t="n">
-        <v>33</v>
+        <v>404825.5061</v>
       </c>
       <c r="G110" t="n">
-        <v>5.414000000000006</v>
+        <v>5.413000000000006</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>5.51</v>
       </c>
       <c r="F111" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G111" t="n">
-        <v>5.414666666666673</v>
+        <v>5.414000000000006</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C112" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="D112" t="n">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="E112" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="F112" t="n">
-        <v>631189.1128999999</v>
+        <v>55</v>
       </c>
       <c r="G112" t="n">
-        <v>5.415500000000005</v>
+        <v>5.414666666666673</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3632,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C113" t="n">
         <v>5.53</v>
@@ -3303,15 +3641,18 @@
         <v>5.53</v>
       </c>
       <c r="E113" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>631189.1128999999</v>
       </c>
       <c r="G113" t="n">
-        <v>5.416000000000005</v>
+        <v>5.415500000000005</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,25 +3661,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="D114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="E114" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="F114" t="n">
-        <v>143776.825</v>
+        <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>5.416333333333338</v>
+        <v>5.416000000000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3349,21 +3693,24 @@
         <v>5.52</v>
       </c>
       <c r="C115" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="D115" t="n">
         <v>5.52</v>
       </c>
       <c r="E115" t="n">
-        <v>5.49</v>
+        <v>5.52</v>
       </c>
       <c r="F115" t="n">
-        <v>685521.6363</v>
+        <v>143776.825</v>
       </c>
       <c r="G115" t="n">
-        <v>5.417500000000004</v>
+        <v>5.416333333333338</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="C116" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="D116" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E116" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="F116" t="n">
-        <v>22</v>
+        <v>685521.6363</v>
       </c>
       <c r="G116" t="n">
-        <v>5.41816666666667</v>
+        <v>5.417500000000004</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>5.53</v>
       </c>
       <c r="F117" t="n">
-        <v>117969.2585</v>
+        <v>22</v>
       </c>
       <c r="G117" t="n">
-        <v>5.420166666666669</v>
+        <v>5.41816666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>5.53</v>
       </c>
       <c r="F118" t="n">
-        <v>18000</v>
+        <v>117969.2585</v>
       </c>
       <c r="G118" t="n">
-        <v>5.421000000000002</v>
+        <v>5.420166666666669</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="C119" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="D119" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="E119" t="n">
-        <v>5.43</v>
+        <v>5.53</v>
       </c>
       <c r="F119" t="n">
-        <v>56094.129</v>
+        <v>18000</v>
       </c>
       <c r="G119" t="n">
-        <v>5.423833333333334</v>
+        <v>5.421000000000002</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.3</v>
+        <v>5.48</v>
       </c>
       <c r="C120" t="n">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
       <c r="D120" t="n">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
       <c r="E120" t="n">
-        <v>5.3</v>
+        <v>5.43</v>
       </c>
       <c r="F120" t="n">
-        <v>63447.2247</v>
+        <v>56094.129</v>
       </c>
       <c r="G120" t="n">
-        <v>5.426000000000001</v>
+        <v>5.423833333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="C121" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="D121" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="E121" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>63447.2247</v>
       </c>
       <c r="G121" t="n">
-        <v>5.426333333333334</v>
+        <v>5.426000000000001</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>5.37</v>
       </c>
       <c r="F122" t="n">
-        <v>588.2681</v>
+        <v>200</v>
       </c>
       <c r="G122" t="n">
-        <v>5.4255</v>
+        <v>5.426333333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="C123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="D123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="E123" t="n">
-        <v>5.33</v>
+        <v>5.37</v>
       </c>
       <c r="F123" t="n">
-        <v>585</v>
+        <v>588.2681</v>
       </c>
       <c r="G123" t="n">
-        <v>5.425166666666667</v>
+        <v>5.4255</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="C124" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="D124" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="E124" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="F124" t="n">
-        <v>12</v>
+        <v>585</v>
       </c>
       <c r="G124" t="n">
-        <v>5.426166666666666</v>
+        <v>5.425166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>5.37</v>
       </c>
       <c r="C125" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="D125" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="E125" t="n">
         <v>5.37</v>
       </c>
       <c r="F125" t="n">
-        <v>63243.21</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>5.427166666666666</v>
+        <v>5.426166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="C126" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D126" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E126" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="F126" t="n">
-        <v>180</v>
+        <v>63243.21</v>
       </c>
       <c r="G126" t="n">
-        <v>5.4265</v>
+        <v>5.427166666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E127" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="F127" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="G127" t="n">
-        <v>5.428666666666667</v>
+        <v>5.4265</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="D128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E128" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="F128" t="n">
-        <v>3500</v>
+        <v>122</v>
       </c>
       <c r="G128" t="n">
-        <v>5.427999999999999</v>
+        <v>5.428666666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="C129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="D129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="E129" t="n">
-        <v>5.48</v>
+        <v>5.38</v>
       </c>
       <c r="F129" t="n">
-        <v>333</v>
+        <v>3500</v>
       </c>
       <c r="G129" t="n">
-        <v>5.429999999999999</v>
+        <v>5.427999999999999</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>5.48</v>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="G130" t="n">
-        <v>5.431666666666667</v>
+        <v>5.429999999999999</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C131" t="n">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="D131" t="n">
-        <v>5.46</v>
+        <v>5.48</v>
       </c>
       <c r="E131" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="F131" t="n">
-        <v>218175.843</v>
+        <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>5.433333333333333</v>
+        <v>5.431666666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +4183,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C132" t="n">
         <v>5.46</v>
@@ -3797,15 +4192,18 @@
         <v>5.46</v>
       </c>
       <c r="E132" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="F132" t="n">
-        <v>238175.8431</v>
+        <v>218175.843</v>
       </c>
       <c r="G132" t="n">
-        <v>5.434666666666666</v>
+        <v>5.433333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.42</v>
+        <v>5.36</v>
       </c>
       <c r="C133" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="D133" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="E133" t="n">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="F133" t="n">
-        <v>3863.6531</v>
+        <v>238175.8431</v>
       </c>
       <c r="G133" t="n">
-        <v>5.435333333333332</v>
+        <v>5.434666666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="C134" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="D134" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="E134" t="n">
-        <v>5.34</v>
+        <v>5.42</v>
       </c>
       <c r="F134" t="n">
-        <v>60381.4724</v>
+        <v>3863.6531</v>
       </c>
       <c r="G134" t="n">
-        <v>5.435499999999999</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>5.34</v>
       </c>
       <c r="C135" t="n">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="D135" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E135" t="n">
         <v>5.34</v>
       </c>
-      <c r="E135" t="n">
-        <v>5.33</v>
-      </c>
       <c r="F135" t="n">
-        <v>260155.0889</v>
+        <v>60381.4724</v>
       </c>
       <c r="G135" t="n">
-        <v>5.434999999999999</v>
+        <v>5.435499999999999</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.38</v>
+        <v>5.34</v>
       </c>
       <c r="C136" t="n">
-        <v>5.47</v>
+        <v>5.33</v>
       </c>
       <c r="D136" t="n">
-        <v>5.47</v>
+        <v>5.34</v>
       </c>
       <c r="E136" t="n">
-        <v>5.38</v>
+        <v>5.33</v>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>260155.0889</v>
       </c>
       <c r="G136" t="n">
-        <v>5.436499999999999</v>
+        <v>5.434999999999999</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="C137" t="n">
-        <v>5.42</v>
+        <v>5.47</v>
       </c>
       <c r="D137" t="n">
-        <v>5.42</v>
+        <v>5.47</v>
       </c>
       <c r="E137" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="F137" t="n">
-        <v>12964.2066</v>
+        <v>22</v>
       </c>
       <c r="G137" t="n">
-        <v>5.437166666666666</v>
+        <v>5.436499999999999</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="C138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="D138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="E138" t="n">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>12964.2066</v>
       </c>
       <c r="G138" t="n">
-        <v>5.437499999999999</v>
+        <v>5.437166666666666</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,7 +4386,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="C139" t="n">
         <v>5.4</v>
@@ -3979,15 +4395,18 @@
         <v>5.4</v>
       </c>
       <c r="E139" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="F139" t="n">
-        <v>190036.4117</v>
+        <v>300</v>
       </c>
       <c r="G139" t="n">
-        <v>5.437833333333332</v>
+        <v>5.437499999999999</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.23</v>
+        <v>5.28</v>
       </c>
       <c r="C140" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="D140" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="E140" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="F140" t="n">
-        <v>56.5528</v>
+        <v>190036.4117</v>
       </c>
       <c r="G140" t="n">
-        <v>5.435333333333332</v>
+        <v>5.437833333333332</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="C141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="D141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="E141" t="n">
-        <v>5.38</v>
+        <v>5.23</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>56.5528</v>
       </c>
       <c r="G141" t="n">
-        <v>5.434833333333332</v>
+        <v>5.435333333333332</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>5.38</v>
       </c>
       <c r="C142" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="D142" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E142" t="n">
         <v>5.38</v>
       </c>
       <c r="F142" t="n">
-        <v>9462.269</v>
+        <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>5.434499999999998</v>
+        <v>5.434833333333332</v>
       </c>
       <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="C143" t="n">
         <v>5.39</v>
@@ -4083,15 +4511,18 @@
         <v>5.39</v>
       </c>
       <c r="E143" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="F143" t="n">
-        <v>18552.8756</v>
+        <v>9462.269</v>
       </c>
       <c r="G143" t="n">
-        <v>5.433666666666665</v>
+        <v>5.434499999999998</v>
       </c>
       <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,541 +4534,24 @@
         <v>5.39</v>
       </c>
       <c r="C144" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="D144" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E144" t="n">
         <v>5.39</v>
       </c>
       <c r="F144" t="n">
-        <v>285315.9292442593</v>
+        <v>18552.8756</v>
       </c>
       <c r="G144" t="n">
-        <v>5.433499999999997</v>
+        <v>5.433666666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C145" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E145" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>18620.5608</v>
-      </c>
-      <c r="G145" t="n">
-        <v>5.433333333333331</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="C146" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14373.5882</v>
-      </c>
-      <c r="G146" t="n">
-        <v>5.43283333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E147" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>25213.287</v>
-      </c>
-      <c r="G147" t="n">
-        <v>5.432666666666663</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>18909.9537</v>
-      </c>
-      <c r="G148" t="n">
-        <v>5.432666666666663</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="D149" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E149" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="F149" t="n">
-        <v>15055.6489</v>
-      </c>
-      <c r="G149" t="n">
-        <v>5.430499999999995</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="C150" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D150" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E150" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="F150" t="n">
-        <v>12</v>
-      </c>
-      <c r="G150" t="n">
-        <v>5.431166666666661</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="D151" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="E151" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14980.849</v>
-      </c>
-      <c r="G151" t="n">
-        <v>5.429666666666662</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="C152" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F152" t="n">
-        <v>95795.141</v>
-      </c>
-      <c r="G152" t="n">
-        <v>5.428166666666661</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="C153" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D153" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="F153" t="n">
-        <v>11</v>
-      </c>
-      <c r="G153" t="n">
-        <v>5.427999999999995</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="C154" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D154" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="F154" t="n">
-        <v>193700.3203</v>
-      </c>
-      <c r="G154" t="n">
-        <v>5.427666666666661</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="C155" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="D155" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="E155" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="F155" t="n">
-        <v>27946.768</v>
-      </c>
-      <c r="G155" t="n">
-        <v>5.42516666666666</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F156" t="n">
-        <v>176064.6258</v>
-      </c>
-      <c r="G156" t="n">
-        <v>5.423333333333328</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D157" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E157" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F157" t="n">
-        <v>852.7881</v>
-      </c>
-      <c r="G157" t="n">
-        <v>5.421833333333327</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C158" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D158" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E158" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="F158" t="n">
-        <v>260255.089</v>
-      </c>
-      <c r="G158" t="n">
-        <v>5.42016666666666</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C159" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D159" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F159" t="n">
-        <v>100</v>
-      </c>
-      <c r="G159" t="n">
-        <v>5.418999999999993</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="C160" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>5.41966666666666</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="F161" t="n">
-        <v>12</v>
-      </c>
-      <c r="G161" t="n">
-        <v>5.416999999999993</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F162" t="n">
-        <v>11</v>
-      </c>
-      <c r="G162" t="n">
-        <v>5.41516666666666</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F163" t="n">
-        <v>284711.3384</v>
-      </c>
-      <c r="G163" t="n">
-        <v>5.413666666666659</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="F164" t="n">
-        <v>89462.59</v>
-      </c>
-      <c r="G164" t="n">
-        <v>5.411499999999992</v>
-      </c>
-      <c r="H164" t="n">
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
